--- a/GaitDataset0-metadata.xlsx
+++ b/GaitDataset0-metadata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Date/Hour</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>F5-A.csv, F5-B.csv</t>
+  </si>
+  <si>
+    <t>M4-A.csv, M4-B.csv</t>
+  </si>
+  <si>
+    <t>M5-A.csv, M5-B.csv</t>
+  </si>
+  <si>
+    <t>F6-A.csv, F6-B.csv</t>
+  </si>
+  <si>
+    <t>M6-A.csv, M6-B.csv</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -552,25 +564,33 @@
     <xf borderId="18" fillId="5" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="8" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="24" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="5" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="24" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1083,78 +1103,190 @@
       <c r="B13" s="29">
         <v>9.0</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="42"/>
+      <c r="C13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="39">
+        <v>42537.0</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="F13" s="33">
+        <v>20.0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>170.0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>60.0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="J13" s="35">
+        <v>11.0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>49.0</v>
+      </c>
+      <c r="L13" s="35">
+        <v>49.0</v>
+      </c>
+      <c r="M13" s="33">
+        <v>104.0</v>
+      </c>
+      <c r="N13" s="35">
+        <v>88.0</v>
+      </c>
+      <c r="O13" s="33">
+        <v>141.0</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="23">
         <v>10.0</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="45"/>
+      <c r="C14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="42">
+        <v>42537.0</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="F14" s="27">
+        <v>20.0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>182.0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>72.0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="K14" s="27">
+        <v>51.0</v>
+      </c>
+      <c r="L14" s="27">
+        <v>51.0</v>
+      </c>
+      <c r="M14" s="27">
+        <v>108.0</v>
+      </c>
+      <c r="N14" s="27">
+        <v>90.0</v>
+      </c>
+      <c r="O14" s="27">
+        <v>145.0</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="29">
         <v>11.0</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="42"/>
+      <c r="C15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="39">
+        <v>42537.0</v>
+      </c>
+      <c r="E15" s="40">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="F15" s="33">
+        <v>22.0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>167.0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>56.0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>9.0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>46.0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>45.0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>101.0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>84.0</v>
+      </c>
+      <c r="O15" s="33">
+        <v>137.0</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="46">
+      <c r="B16" s="43">
         <v>12.0</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="49"/>
+      <c r="C16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="45">
+        <v>42538.0</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.5423611111111111</v>
+      </c>
+      <c r="F16" s="44">
+        <v>49.0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>187.0</v>
+      </c>
+      <c r="H16" s="44">
+        <v>95.0</v>
+      </c>
+      <c r="I16" s="44">
+        <v>12.0</v>
+      </c>
+      <c r="J16" s="44">
+        <v>11.0</v>
+      </c>
+      <c r="K16" s="44">
+        <v>56.0</v>
+      </c>
+      <c r="L16" s="44">
+        <v>55.0</v>
+      </c>
+      <c r="M16" s="44">
+        <v>116.0</v>
+      </c>
+      <c r="N16" s="44">
+        <v>95.0</v>
+      </c>
+      <c r="O16" s="44">
+        <v>154.0</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
